--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neha.aggarwal1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\ParkMobileTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
-    <t>TC_03</t>
-  </si>
-  <si>
     <t>TS_003</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>QuitDriver</t>
+  </si>
+  <si>
+    <t>TC_01</t>
   </si>
 </sst>
 </file>
@@ -426,109 +426,109 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
